--- a/biology/Zoologie/Belette/Belette.xlsx
+++ b/biology/Zoologie/Belette/Belette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,22 +490,24 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « belette » est un nom vernaculaire ambigu en français. Il désigne la plupart du temps la Belette d'Europe mais aussi diverses espèces de mustélidés :
-les belettes du genre Mustela[1] :
-la Belette de montagne, Belette des Alpes ou Putois des montagnes (M. altaica)[1],[2],
-la Belette à ventre jaune ou Putois à ventre jaune (M. kathiah)[1],[2],
-la Belette, Belette d'Europe ou Belette pygmée (M. nivalis)[1],[2],
-la Belette malaise (M. nudipes)[1],
-la Belette putois, Putois ou Putois d'Europe (M. putorius)[1],
-la Belette égyptienne (M. subpalmata)[3],
-la Belette de Sibérie, Putois de Sibérie ou Vison de Sibérie (M. sibirica)[1],[2] ;
+les belettes du genre Mustela :
+la Belette de montagne, Belette des Alpes ou Putois des montagnes (M. altaica)
+la Belette à ventre jaune ou Putois à ventre jaune (M. kathiah)
+la Belette, Belette d'Europe ou Belette pygmée (M. nivalis)
+la Belette malaise (M. nudipes),
+la Belette putois, Putois ou Putois d'Europe (M. putorius),
+la Belette égyptienne (M. subpalmata),
+la Belette de Sibérie, Putois de Sibérie ou Vison de Sibérie (M. sibirica), ;
 les belettes du genre Neogale (en) :
-la Belette tropicale ou Belette de Desmarest (N. africana)[1],[2],
-la Belette colombienne (N. felipei)[1],
-la Belette à longue queue ou Belette américaine (N. frenata)[1],[2] ;
-la Belette rayée d'Afrique, Zorille à nuque blanche ou Pœcilogale (Poecilogale albinucha)[4].
+la Belette tropicale ou Belette de Desmarest (N. africana)
+la Belette colombienne (N. felipei),
+la Belette à longue queue ou Belette américaine (N. frenata), ;
+la Belette rayée d'Afrique, Zorille à nuque blanche ou Pœcilogale (Poecilogale albinucha).
 	Belettes (mustélidés du genre Mustela)
 			Belette à ventre jaune (M. kathiah)
 			Belette (M. nivalis)
@@ -505,8 +517,8 @@
 			Belette à longue queue (Neogale frenata)
 			Putois congolais (Poecilogale albinucha)
 Par extension, d'autres mammifères appartenant à des ordres différents sont également qualifiés de « belettes » :
-le Cobaye-belette (Galea musteloides), un rongeur[5] ;
-les lémurs belettes ou lépilémurs (genre Lepilemur), des primates[6].
+le Cobaye-belette (Galea musteloides), un rongeur ;
+les lémurs belettes ou lépilémurs (genre Lepilemur), des primates.
 	Belettes (autres mammifères)
 			Cobaye-belette (Galea musteloides)
 			Lépilémur de Sahamalaza (Lepilemur sahamalazensis)
